--- a/terms/access/archive_solves.xlsx
+++ b/terms/access/archive_solves.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\terms\access\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\terms\access\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB482E80-DF30-4811-BDBD-7BE5ECDB02FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E7A8AE-5491-417C-B266-B5636CF72B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="レビュー" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>問題集</t>
     <rPh sb="0" eb="2">
@@ -380,6 +391,189 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>オウベイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンクからアクセスできない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク生成以降で認証するようなケース</t>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本認証サーバー</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リダイレクトしてくれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPNパスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OTPトークン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多種の個人所有機器での利用者認証の動作検証</t>
+    <rPh sb="0" eb="2">
+      <t>タシュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ショユウキキ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信にかかる時間が大きくなるため、シンクライアントの画面と操作のタイムラグが大きくなる</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮想デスクトップの操作に対するレスポンスが悪化する</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポータルから直接、認証を求める場合</t>
+    <rPh sb="6" eb="8">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジア認証サーバー</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPONEGOの設定をする</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジアPC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPONEGOすることで、ほかの認証サーバーの認証を受け入れるようになる</t>
+    <rPh sb="16" eb="18">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -707,22 +901,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="96.875" customWidth="1"/>
+    <col min="2" max="2" width="96.8984375" customWidth="1"/>
+    <col min="3" max="3" width="8.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,15 +925,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="C2" s="1"/>
+      <c r="D2">
+        <f>SUM(D4:D1000)</f>
+        <v>71</v>
+      </c>
+      <c r="E2">
+        <f>SUM(E4:E1000)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -746,13 +950,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1">
+    <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -760,16 +967,20 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <f>IF(B4&lt;&gt;"",LEN(B4),"")</f>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -777,16 +988,20 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <f t="shared" ref="C5:C55" si="0">IF(B5&lt;&gt;"",LEN(B5),"")</f>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -794,16 +1009,20 @@
         <v>31</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -811,16 +1030,20 @@
         <v>35</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -828,13 +1051,17 @@
         <v>37</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -842,16 +1069,23 @@
         <v>39</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -859,19 +1093,23 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -879,73 +1117,419 @@
         <v>43</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="F12" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="F13" t="s">
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="F15" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="F16" t="s">
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
-      <c r="F17" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
-      <c r="F18" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
-      <c r="F19" t="s">
+    <row r="19" spans="1:7">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" t="s">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" t="s">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="6:6">
-      <c r="F23" t="s">
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
-      <c r="F25" t="s">
+    <row r="24" spans="1:7">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
-      <c r="F26" t="s">
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -962,7 +1546,7 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
